--- a/results/Book_write.xlsx
+++ b/results/Book_write.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -469,7 +469,7 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" t="n">
-        <v>0.1929536744938389</v>
+        <v>0.1340363303204352</v>
       </c>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" t="n">
-        <v>0.006253529912257693</v>
+        <v>0.0563503696003585</v>
       </c>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
@@ -486,7 +486,7 @@
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>0.006253529912257693</v>
+        <v>0.006390906213699025</v>
       </c>
       <c r="B3" s="6" t="n"/>
       <c r="C3" s="6" t="n"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>0.001811302439392802</v>
+        <v>0.00174955807935915</v>
       </c>
       <c r="B4" s="6" t="n"/>
       <c r="C4" s="6" t="n"/>
@@ -508,7 +508,7 @@
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="2" t="n">
-        <v>0.001811302439392802</v>
+        <v>0.00174955807935915</v>
       </c>
       <c r="B5" s="6" t="n"/>
       <c r="C5" s="6" t="n"/>
@@ -519,7 +519,7 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>0.001257717144074646</v>
+        <v>0.001483481535534765</v>
       </c>
       <c r="B6" s="6" t="n"/>
       <c r="C6" s="6" t="n"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>0.001257717144074646</v>
+        <v>0.001483481535534765</v>
       </c>
       <c r="B7" s="6" t="n"/>
       <c r="C7" s="6" t="n"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>0.0006373310330743201</v>
+        <v>0.001483481535534765</v>
       </c>
       <c r="B8" s="6" t="n"/>
       <c r="C8" s="6" t="n"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>0.001483481535534765</v>
       </c>
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="n"/>
@@ -564,7 +564,7 @@
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
@@ -575,7 +575,7 @@
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B11" s="6" t="n"/>
       <c r="C11" s="6" t="n"/>
@@ -586,7 +586,7 @@
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="n"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B13" s="6" t="n"/>
       <c r="C13" s="6" t="n"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="n"/>
@@ -622,7 +622,7 @@
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="2" t="n">
-        <v>0.0002249384273009964</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B15" s="6" t="n"/>
       <c r="C15" s="6" t="n"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="2" t="n">
-        <v>0.000169991424927059</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B16" s="6" t="n"/>
       <c r="C16" s="6" t="n"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="2" t="n">
-        <v>0.000169991424927059</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="n"/>
@@ -655,7 +655,7 @@
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="2" t="n">
-        <v>0.0001137672211665399</v>
+        <v>1.940971632227829e-05</v>
       </c>
       <c r="B18" s="6" t="n"/>
       <c r="C18" s="6" t="n"/>
@@ -666,912 +666,2412 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0001052432824304064</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0001052432824304064</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.627463036719726e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.262761217651886e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.23522682148741e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.23522682148741e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.23522682148741e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.846516152880519e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.846516152880519e-05</v>
+        <v>1.940971632227829e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.846516152880519e-05</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.498287205438545e-05</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.498287205438545e-05</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.498287205438545e-05</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.526859153051858e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.52623651265935e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.52623651265935e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.52623651265935e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>5.228855680175577e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.182756280182603e-06</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>1.492442593224356e-06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>4.894267186805686e-07</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>4.894267186805686e-07</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>4.894267186805686e-07</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>2.411216529922831e-07</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>2.411216529922831e-07</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>2.411216529922831e-07</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.782696891097364e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.357083779809154e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.357083779809154e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.357083779809154e-10</v>
+        <v>7.449651148573105e-08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.357083779809154e-10</v>
+        <v>7.35019137190584e-08</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>6.531731308202315e-08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>6.531731308202315e-08</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>2.868715245256226e-08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>1.517359121432175e-08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>1.517359121432175e-08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>1.323441307388027e-08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.336684621591168e-11</v>
+        <v>1.323441307388027e-08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.051955029788071e-11</v>
+        <v>1.323441307388027e-08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.051955029788071e-11</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.051955029788071e-11</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.475895552412735e-12</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.479508618081256e-12</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.479508618081256e-12</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.947486090855616e-13</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.947486090855616e-13</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9.947486090855616e-13</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.597802444733718e-13</v>
+        <v>1.430446659014307e-09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.597802444733718e-13</v>
+        <v>1.937844272939559e-10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.711918736554003e-13</v>
+        <v>1.937844272939559e-10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.542666020427396e-13</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.570085499465504e-13</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.805609549061075e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.805609549061075e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.805609549061075e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.377426684100439e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.377426684100439e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.256410490166361e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.256410490166361e-15</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.82557085817911e-16</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.82557085817911e-16</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.82557085817911e-16</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.585844386241793e-16</v>
+        <v>1.201281347224913e-10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.370522782603278e-16</v>
+        <v>1.030893374156593e-10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.370522782603278e-16</v>
+        <v>7.585034070612927e-11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>7.585034070612927e-11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>7.585034070612927e-11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>7.585034070612927e-11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>3.700211073881955e-11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>3.700211073881955e-11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>3.700211073881955e-11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>3.700211073881955e-11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>2.933786665707599e-11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>2.933786665707599e-11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>2.6765085980495e-12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>2.6765085980495e-12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>6.989136565731759e-13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>6.989136565731759e-13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.385966772377705e-18</v>
+        <v>6.989136565731759e-13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.510239058053683e-18</v>
+        <v>6.095278020740122e-13</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.206944730740848e-18</v>
+        <v>6.095278020740122e-13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.206944730740848e-18</v>
+        <v>6.095278020740122e-13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.589858772173872e-19</v>
+        <v>6.095278020740122e-13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.589858772173872e-19</v>
+        <v>3.602646030200914e-13</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.589858772173872e-19</v>
+        <v>3.602646030200914e-13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.284769542469846e-20</v>
+        <v>3.602646030200914e-13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.284769542469846e-20</v>
+        <v>3.602646030200914e-13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5.284769542469846e-20</v>
+        <v>3.602646030200914e-13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.73262880712832e-20</v>
+        <v>3.602646030200914e-13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6.128508682436698e-21</v>
+        <v>6.520767941058726e-14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.128508682436698e-21</v>
+        <v>6.520767941058726e-14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6.128508682436698e-21</v>
+        <v>6.520767941058726e-14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.128508682436698e-21</v>
+        <v>6.520767941058726e-14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.128508682436698e-21</v>
+        <v>4.398151845520925e-14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5.630894488717094e-21</v>
+        <v>4.398151845520925e-14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.8719304886266e-21</v>
+        <v>3.421226398599193e-14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.8719304886266e-21</v>
+        <v>3.421226398599193e-14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.8719304886266e-21</v>
+        <v>3.421226398599193e-14</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.256716435930925e-21</v>
+        <v>2.869587532930162e-14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.344050683034512e-22</v>
+        <v>2.869587532930162e-14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.734743913646751e-23</v>
+        <v>1.906060261210903e-15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8.734743913646751e-23</v>
+        <v>1.906060261210903e-15</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8.506946345692678e-23</v>
+        <v>1.906060261210903e-15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8.506946345692678e-23</v>
+        <v>1.906060261210903e-15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.841681256346208e-23</v>
+        <v>7.996758478239205e-16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5.364750908912816e-24</v>
+        <v>7.996758478239205e-16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5.364750908912816e-24</v>
+        <v>7.996758478239205e-16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5.364750908912816e-24</v>
+        <v>7.996758478239205e-16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5.364750908912816e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.341538773092398e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.341538773092398e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.341538773092398e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.341538773092398e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.102034966132289e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.029153372719927e-24</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>6.894084781464998e-25</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.314230603474234e-26</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9.314230603474234e-26</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.314230603474234e-26</v>
+        <v>1.645500534174767e-17</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.314230603474234e-26</v>
+        <v>7.1520484052095e-18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9.314230603474234e-26</v>
+        <v>7.1520484052095e-18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.314230603474234e-26</v>
+        <v>7.1520484052095e-18</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3.397781816425886e-26</v>
+        <v>7.1520484052095e-18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.151346862928504e-27</v>
+        <v>7.1520484052095e-18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.151346862928504e-27</v>
+        <v>7.1520484052095e-18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>4.438822554931034e-27</v>
+        <v>1.419590181661746e-18</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4.438822554931034e-27</v>
+        <v>1.419590181661746e-18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8.203420197257331e-28</v>
+        <v>1.419590181661746e-18</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8.203420197257331e-28</v>
+        <v>9.953782396326815e-19</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.203420197257331e-28</v>
+        <v>9.953782396326815e-19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.386819740138415e-28</v>
+        <v>9.953782396326815e-19</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.22988929966009e-28</v>
+        <v>9.953782396326815e-19</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.22988929966009e-28</v>
+        <v>9.953782396326815e-19</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>7.342488988775503e-29</v>
+        <v>9.953782396326815e-19</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4.281616644809725e-29</v>
+        <v>4.378732927900295e-19</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4.281616644809725e-29</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.09765637936968e-30</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.09765637936968e-30</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.783005639534491e-30</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.50326433493304e-30</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.50326433493304e-30</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.50326433493304e-30</v>
+        <v>4.032149418926187e-20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3.818876786448125e-32</v>
+        <v>3.520470206054809e-20</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3.818876786448125e-32</v>
+        <v>1.601362779714708e-20</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3.818876786448125e-32</v>
+        <v>1.601362779714708e-20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.800183352938501e-32</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9.393889417382483e-33</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.393889417382483e-33</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.393889417382483e-33</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.882030153406816e-33</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.882030153406816e-33</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.882030153406816e-33</v>
+        <v>1.139179521479187e-21</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.882030153406816e-33</v>
+        <v>1.139179521479187e-21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.139179521479187e-21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.139179521479187e-21</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.139179521479187e-21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.041987254529567e-21</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>5.978939464629071e-22</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>5.057644399603593e-22</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>5.057644399603593e-22</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>5.057644399603593e-22</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>5.057644399603593e-22</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>5.057644399603593e-22</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>5.057644399603593e-22</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>4.68864997179615e-22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>4.022960343401996e-22</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>3.574060629795337e-22</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>3.266505557550822e-22</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>3.053060228775744e-22</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2.903426365542054e-22</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2.797720282313531e-22</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.722622996738266e-22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>7.937971898528503e-25</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>7.937971898528503e-25</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>7.937971898528503e-25</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7.937971898528503e-25</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7.937971898528503e-25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>7.937971898528503e-25</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>5.243662843208538e-25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>5.243662843208538e-25</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2.74400039677126e-25</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2.74400039677126e-25</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>5.770513762757462e-26</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>5.530470876491129e-26</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.169933043321989e-26</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.169933043321989e-26</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.169933043321989e-26</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>4.178596068826011e-27</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4.071800671796687e-27</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>4.071800671796687e-27</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.090317174392439e-27</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.090317174392439e-27</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>9.6163284882193e-28</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>9.6163284882193e-28</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2.936952059566513e-28</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2.936952059566513e-28</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2.936952059566513e-28</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2.936952059566513e-28</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.936952059566513e-28</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>7.095310160090469e-29</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>7.896885371034953e-30</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>7.896885371034953e-30</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>7.896885371034953e-30</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>7.896885371034953e-30</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>7.896885371034953e-30</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>7.896885371034953e-30</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>4.25082859383864e-30</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>4.25082859383864e-30</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>4.25082859383864e-30</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.436200202238942e-30</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>4.237386635858267e-31</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>4.237386635858267e-31</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4.237386635858267e-31</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>4.237386635858267e-31</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>4.237386635858267e-31</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3.667417749000045e-31</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.790044626336249e-31</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.790044626336249e-31</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.790044626336249e-31</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.790044626336249e-31</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.790044626336249e-31</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.790044626336249e-31</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.166075103757935e-32</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2.166075103757935e-32</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2.166075103757935e-32</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2.166075103757935e-32</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>7.383139799375648e-33</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>7.383139799375648e-33</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>7.383139799375648e-33</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1.676319653716205e-33</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>2.150418455294803e-34</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>2.150418455294803e-34</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.580193313715001e-34</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1.580193313715001e-34</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1.580193313715001e-34</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>5.119043915538053e-35</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>7.567474739693766e-36</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>7.567474739693766e-36</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>7.567474739693766e-36</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>7.567474739693766e-36</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>7.319540724559058e-36</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>7.319540724559058e-36</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3.054746331103774e-36</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>4.745955358881253e-37</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>4.745955358881253e-37</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>4.745955358881253e-37</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>4.745955358881253e-37</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>4.745955358881253e-37</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3.540023624098536e-37</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3.540023624098536e-37</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>9.039079741204678e-38</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>9.039079741204678e-38</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2.380619218161794e-38</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2.380619218161794e-38</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>6.076005713470056e-39</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>6.076005713470056e-39</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>6.076005713470056e-39</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>6.076005713470056e-39</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3.096916886378275e-39</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3.096916886378275e-39</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1.162936387980156e-39</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1.162936387980156e-39</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1.920197384168571e-41</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1.920197384168571e-41</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1.920197384168571e-41</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1.920197384168571e-41</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1.347162042354079e-41</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1.347162042354079e-41</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1.347162042354079e-41</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1.347162042354079e-41</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1.347162042354079e-41</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>5.485195674888241e-42</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>5.485195674888241e-42</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>5.485195674888241e-42</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3.072095161812605e-42</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>6.244806029103375e-43</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>6.244806029103375e-43</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3.074166848451833e-43</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3.032197732951801e-43</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3.032197732951801e-43</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3.032197732951801e-43</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1.948054082135404e-43</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1.560408863003646e-43</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>6.829492980903412e-44</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>6.829492980903412e-44</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>6.829492980903412e-44</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2.691296911610945e-44</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1.087113351438528e-44</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>8.69280044016995e-46</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>8.69280044016995e-46</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>8.69280044016995e-46</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>8.69280044016995e-46</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>4.428720072274592e-46</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>4.428720072274592e-46</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>4.428720072274592e-46</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3.374259774989222e-46</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3.213162288274863e-46</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3.213162288274863e-46</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>2.049499359728201e-46</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1.497190927340369e-47</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1.497190927340369e-47</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1.497190927340369e-47</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>8.742038563365654e-48</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>5.543796872457668e-48</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2.596617763217378e-48</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1.660936432926037e-48</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>1.451200981703364e-48</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1.451200981703364e-48</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1.451200981703364e-48</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1.434644301428627e-48</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>2.169747035361368e-50</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>6.179246884469985e-51</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>2.320635724424395e-51</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>2.320635724424395e-51</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>2.320635724424395e-51</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>2.320635724424395e-51</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2.320635724424395e-51</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1.602150136610773e-51</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>6.685905609701878e-52</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>1.126855417607954e-52</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>6.540501528638231e-53</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>6.540501528638231e-53</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3.341722342625755e-54</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>3.341722342625755e-54</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>3.341722342625755e-54</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>2.744357153097014e-54</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>2.744357153097014e-54</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>2.744357153097014e-54</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2.744357153097014e-54</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>2.744357153097014e-54</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>2.744357153097014e-54</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>5.437121429934932e-55</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>5.437121429934932e-55</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>4.673629644924256e-55</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>7.520993600561516e-57</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>7.520993600561516e-57</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>7.520993600561516e-57</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>7.520993600561516e-57</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>5.698775486585118e-57</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>5.698775486585118e-57</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>2.654403969486921e-57</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>2.654403969486921e-57</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>6.510063910988275e-58</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>6.510063910988275e-58</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>6.510063910988275e-58</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>9.374555613662857e-59</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>9.374555613662857e-59</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>9.374555613662857e-59</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>7.615819422142103e-59</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>6.56376350803385e-59</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>4.690933011391979e-59</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1.600128657744893e-59</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1.600128657744893e-59</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1.220774953027392e-59</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1.220774953027392e-59</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1.220774953027392e-59</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>9.618985526285848e-60</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>4.194074498256956e-60</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>4.194074498256956e-60</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>4.194074498256956e-60</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>4.194074498256956e-60</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>2.475061738544482e-61</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>2.475061738544482e-61</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>2.475061738544482e-61</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>2.475061738544482e-61</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>2.475061738544482e-61</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>2.475061738544482e-61</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1.911081069968439e-62</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1.911081069968439e-62</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1.911081069968439e-62</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1.911081069968439e-62</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1.0437343336037e-62</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>2.099974789760028e-63</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>2.337062372731367e-64</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1.710110098919584e-64</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1.710110098919584e-64</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1.274892324769724e-64</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>4.894504380301452e-66</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2.783317706121916e-66</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1.589572887416127e-66</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1.589572887416127e-66</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>6.827450874136397e-67</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>6.827450874136397e-67</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>6.827450874136397e-67</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>2.899642124506804e-67</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1.063988480703719e-67</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1.063988480703719e-67</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>6.491073127342518e-68</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>6.375344325492358e-68</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>1.18000174190048e-68</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>6.800496948899153e-70</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>6.800496948899153e-70</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1.024759226806183e-70</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1.024759226806183e-70</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>1.024759226806183e-70</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1.024759226806183e-70</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1.024759226806183e-70</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1.024759226806183e-70</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2.1317526100682e-71</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2.1317526100682e-71</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>2.1317526100682e-71</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2.1317526100682e-71</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2.1317526100682e-71</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>4.150365155291623e-72</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>4.150365155291623e-72</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>1.563555701723618e-72</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1.071940512138998e-72</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1.071940512138998e-72</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>1.015140574042135e-72</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>3.375745797018749e-73</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>3.339489908981684e-73</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>3.278015923484848e-74</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1.549460554471897e-74</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>6.543116486521296e-76</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>4.092857772245039e-76</v>
       </c>
     </row>
   </sheetData>
